--- a/PFOA inhalation Rat/Data/PFOA_female_cum-urine_Lupton_2020.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_cum-urine_Lupton_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162E668-8516-4FA0-873D-3BD092E6DFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C517D70-9282-42B0-93EA-658A2CB45B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,10 +126,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +463,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,27 +509,27 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>48.1</v>
       </c>
-      <c r="D2" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <f>J$2*C2/100</f>
+      <c r="D2" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F16" si="0">J$2*C2/100</f>
         <v>4.2388125000000004E-3</v>
       </c>
-      <c r="G2" s="3">
-        <f>F2/K$4</f>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G16" si="1">F2/K$4</f>
         <v>1.695525E-5</v>
       </c>
       <c r="H2" s="1">
@@ -550,62 +546,62 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>57.2</v>
       </c>
-      <c r="D3" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <f>J$2*C3/100</f>
+      <c r="D3" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
         <v>5.0407500000000001E-3</v>
       </c>
-      <c r="G3" s="3">
-        <f>F3/K$4</f>
+      <c r="G3" s="1">
+        <f t="shared" si="1"/>
         <v>2.0163E-5</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H16" si="0">G3*1000</f>
+        <f t="shared" ref="H3:H16" si="2">G3*1000</f>
         <v>2.0163E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>60.9</v>
       </c>
-      <c r="D4" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <f>J$2*C4/100</f>
+      <c r="D4" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
         <v>5.3668125000000001E-3</v>
       </c>
-      <c r="G4" s="3">
-        <f>F4/K$4</f>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
         <v>2.146725E-5</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.146725E-2</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -616,408 +612,403 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
         <v>63.4</v>
       </c>
-      <c r="D5" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <f>J$2*C5/100</f>
+      <c r="D5" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
         <v>5.5871250000000009E-3</v>
       </c>
-      <c r="G5" s="3">
-        <f>F5/K$4</f>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
         <v>2.2348500000000005E-5</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2348500000000004E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
         <v>65.2</v>
       </c>
-      <c r="D6" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <f>J$2*C6/100</f>
+      <c r="D6" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
         <v>5.7457500000000009E-3</v>
       </c>
-      <c r="G6" s="3">
-        <f>F6/K$4</f>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
         <v>2.2983000000000003E-5</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2983000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>66.7</v>
       </c>
-      <c r="D7" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <f>J$2*C7/100</f>
+      <c r="D7" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
         <v>5.8779375000000012E-3</v>
       </c>
-      <c r="G7" s="3">
-        <f>F7/K$4</f>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
         <v>2.3511750000000004E-5</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3511750000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>68.3</v>
       </c>
-      <c r="D8" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <f>J$2*C8/100</f>
+      <c r="D8" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
         <v>6.0189375E-3</v>
       </c>
-      <c r="G8" s="3">
-        <f>F8/K$4</f>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
         <v>2.4075750000000001E-5</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.407575E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>69.599999999999994</v>
       </c>
-      <c r="D9" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <f>J$2*C9/100</f>
+      <c r="D9" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
         <v>6.1335000000000009E-3</v>
       </c>
-      <c r="G9" s="3">
-        <f>F9/K$4</f>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
         <v>2.4534000000000003E-5</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4534000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>70.7</v>
       </c>
-      <c r="D10" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <f>J$2*C10/100</f>
+      <c r="D10" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
         <v>6.2304375000000016E-3</v>
       </c>
-      <c r="G10" s="3">
-        <f>F10/K$4</f>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
         <v>2.4921750000000006E-5</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4921750000000006E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>71</v>
       </c>
-      <c r="D11" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <f>J$2*C11/100</f>
+      <c r="D11" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
         <v>6.2568750000000003E-3</v>
       </c>
-      <c r="G11" s="3">
-        <f>F11/K$4</f>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
         <v>2.5027500000000001E-5</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5027500000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>72.099999999999994</v>
       </c>
-      <c r="D12" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <f>J$2*C12/100</f>
+      <c r="D12" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
         <v>6.3538125000000001E-3</v>
       </c>
-      <c r="G12" s="3">
-        <f>F12/K$4</f>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
         <v>2.541525E-5</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.541525E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>70.7</v>
       </c>
-      <c r="D13" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <f>J$2*C13/100</f>
+      <c r="D13" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
         <v>6.2304375000000016E-3</v>
       </c>
-      <c r="G13" s="3">
-        <f>F13/K$4</f>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
         <v>2.4921750000000006E-5</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4921750000000006E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>71.2</v>
       </c>
-      <c r="D14" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <f>J$2*C14/100</f>
+      <c r="D14" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
         <v>6.2745000000000006E-3</v>
       </c>
-      <c r="G14" s="3">
-        <f>F14/K$4</f>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
         <v>2.5098000000000003E-5</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5098000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>72.099999999999994</v>
       </c>
-      <c r="D15" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <f>J$2*C15/100</f>
+      <c r="D15" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
         <v>6.3538125000000001E-3</v>
       </c>
-      <c r="G15" s="3">
-        <f>F15/K$4</f>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
         <v>2.541525E-5</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.541525E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>72.8</v>
       </c>
-      <c r="D16" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <f>J$2*C16/100</f>
+      <c r="D16" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
         <v>6.4155000000000011E-3</v>
       </c>
-      <c r="G16" s="3">
-        <f>F16/K$4</f>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
         <v>2.5662000000000003E-5</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5662000000000004E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
